--- a/BikeShareDataVisualization.xlsx
+++ b/BikeShareDataVisualization.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,10 +27,10 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="8" r:id="rId12"/>
-    <pivotCache cacheId="11" r:id="rId13"/>
-    <pivotCache cacheId="15" r:id="rId14"/>
-    <pivotCache cacheId="20" r:id="rId15"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="3" r:id="rId14"/>
+    <pivotCache cacheId="4" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -984,49 +984,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1110,49 +1068,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1804,23 +1720,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5522,6 +5422,90 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="94"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -6837,23 +6821,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
@@ -7422,21 +7390,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -8111,17 +8079,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -8230,7 +8188,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -8816,17 +8774,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -9435,23 +9383,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -9979,7 +9911,7 @@
         <c:spPr>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -10880,17 +10812,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -11083,7 +11005,7 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -11633,23 +11555,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -13850,6 +13756,174 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="79"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="80"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -15150,23 +15224,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -15370,21 +15428,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -15767,7 +15825,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-1920000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-1920000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -16084,23 +16142,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -17038,7 +17080,7 @@
         <c:spPr>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -17950,23 +17992,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -18279,21 +18305,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -26422,7 +26448,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1C3B831-A1BB-458C-9138-4A8D3353FEC1}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1C3B831-A1BB-458C-9138-4A8D3353FEC1}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -26834,7 +26860,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83669AF2-2493-49D4-AA26-A3D086CB25EE}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83669AF2-2493-49D4-AA26-A3D086CB25EE}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -27013,7 +27039,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C865B4C9-1CE5-4A6F-B56B-63C178D78E4C}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C865B4C9-1CE5-4A6F-B56B-63C178D78E4C}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -27146,7 +27172,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{855DD67A-8063-4D05-BD74-5F2492D0A102}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{855DD67A-8063-4D05-BD74-5F2492D0A102}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="G2:O14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -27250,7 +27276,7 @@
   <dataFields count="1">
     <dataField name="Average of #OfRide" fld="3" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="18">
+  <chartFormats count="20">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -27457,6 +27483,30 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="94" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="80" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -27928,7 +27978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF4366B-3618-42ED-B898-3A65089C1A5B}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
